--- a/Appendix/6. Testing & Refactoring/6.1 Blackbox Testing.xlsx
+++ b/Appendix/6. Testing & Refactoring/6.1 Blackbox Testing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
   <si>
     <t>Test</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Switch the screen off in the recipe view</t>
   </si>
   <si>
-    <t>Wait for five minutes and make sure the sreen doesn't sleep</t>
-  </si>
-  <si>
     <t>Share the recipe to twitter from recipe view</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>Enter nothing into cookbook description</t>
   </si>
   <si>
-    <t>An error should appear telling the user to fill out cookbook</t>
-  </si>
-  <si>
     <t>Enter nothing into new name box</t>
   </si>
   <si>
@@ -453,6 +447,12 @@
   </si>
   <si>
     <t>The user should not be allowed access</t>
+  </si>
+  <si>
+    <t>An error should appear telling the user to fill out cookbook description</t>
+  </si>
+  <si>
+    <t>Wait for five minutes and make sure the screen doesn't sleep</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -515,17 +515,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,651 +875,698 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
+      <c r="A14" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>81</v>
+      <c r="D35" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>99</v>
+        <v>113</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="C53" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>141</v>
+      <c r="D53" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Appendix/6. Testing & Refactoring/6.1 Blackbox Testing.xlsx
+++ b/Appendix/6. Testing & Refactoring/6.1 Blackbox Testing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
   <si>
     <t>Test</t>
   </si>
@@ -263,9 +263,6 @@
     <t>General</t>
   </si>
   <si>
-    <t>Detailed</t>
-  </si>
-  <si>
     <t>Enter nothing it to password box</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>Enter a password with 8 characters containing one digit , one special character and one upper case letter</t>
   </si>
   <si>
-    <t>1. Enter account email</t>
-  </si>
-  <si>
     <t>Enter an email abcaol.co.uk</t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>7. Enter account password - Create account</t>
   </si>
   <si>
-    <t>2. Enter account email</t>
-  </si>
-  <si>
     <t>Enter an email lynn@aol.com</t>
   </si>
   <si>
@@ -329,15 +320,9 @@
     <t>An error should appear telling the user an account already exists with that email</t>
   </si>
   <si>
-    <t>3. Enter account email</t>
-  </si>
-  <si>
     <t>Leave the email edit text box empty</t>
   </si>
   <si>
-    <t>4. Enter account email</t>
-  </si>
-  <si>
     <t>Enter email testing1@hotmail.co.uk</t>
   </si>
   <si>
@@ -347,60 +332,36 @@
     <t>The user should be able to move onto the next dialog assuming email and name is filled out</t>
   </si>
   <si>
-    <t>1. Enter cookbook name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter nothing into cookbook name </t>
   </si>
   <si>
     <t>An error should appear telling the user too fill out the cookbook name</t>
   </si>
   <si>
-    <t>2. Enter cookbook name</t>
-  </si>
-  <si>
     <t>Enter testing1 into cookbook name</t>
   </si>
   <si>
-    <t>Providing other details are filled out on the dialog box the user should be able to add a cookbook</t>
-  </si>
-  <si>
-    <t>1. Enter recipe name</t>
-  </si>
-  <si>
     <t>Enter nothing into recipe name</t>
   </si>
   <si>
     <t>An error should appear telling the user too fill out the recipe name</t>
   </si>
   <si>
-    <t>2. Enter recipe name</t>
-  </si>
-  <si>
     <t>Enter testingrecipe into recipe name</t>
   </si>
   <si>
     <t>Providing other details are filled out on the dialog box the user should be able to progress with adding a recipe</t>
   </si>
   <si>
-    <t>Enter recipe ingredients</t>
-  </si>
-  <si>
     <t>Enter nothing into recipe ingredients</t>
   </si>
   <si>
     <t>An error should appear telling the user to fill out ingredients</t>
   </si>
   <si>
-    <t>Enter recipe method</t>
-  </si>
-  <si>
     <t>Enter nothing into recipe method</t>
   </si>
   <si>
-    <t>Enter recipe serves</t>
-  </si>
-  <si>
     <t>Enter nothing into serves</t>
   </si>
   <si>
@@ -410,27 +371,18 @@
     <t>An error should appear telling the user to fill out the serves value</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter prep/cooking time </t>
-  </si>
-  <si>
     <t>Enter nothing into prep/cooking time</t>
   </si>
   <si>
     <t>An error should appear telling the user to fill out the prep/cooking time</t>
   </si>
   <si>
-    <t>Enter recipe description</t>
-  </si>
-  <si>
     <t>Enter nothing into recipe description</t>
   </si>
   <si>
     <t>An error should appear telling the user to fill out description</t>
   </si>
   <si>
-    <t>Enter cookbook description</t>
-  </si>
-  <si>
     <t>Enter nothing into cookbook description</t>
   </si>
   <si>
@@ -453,6 +405,57 @@
   </si>
   <si>
     <t>Wait for five minutes and make sure the screen doesn't sleep</t>
+  </si>
+  <si>
+    <t>Enter cookbook description in add and edit a cookbook</t>
+  </si>
+  <si>
+    <t>Enter recipe description in add and edit a recipe</t>
+  </si>
+  <si>
+    <t>Enter prep/cooking time  in add and edit a recipe</t>
+  </si>
+  <si>
+    <t>Enter recipe serves in add and edit a recipe</t>
+  </si>
+  <si>
+    <t>Enter recipe method in add a recipe</t>
+  </si>
+  <si>
+    <t>Enter recipe ingredients in add a recipe</t>
+  </si>
+  <si>
+    <t>1. Enter recipe name in add/edit a recipe</t>
+  </si>
+  <si>
+    <t>2. Enter recipe name in add a recipe</t>
+  </si>
+  <si>
+    <t>1. Enter cookbook name in add/edit cookbook</t>
+  </si>
+  <si>
+    <t>Providing other details are filled out on the dialog box the user should be able to progress with adding a cookbook</t>
+  </si>
+  <si>
+    <t>2. Enter cookbook name in add a cookbook</t>
+  </si>
+  <si>
+    <t>1. Enter account email - Create account</t>
+  </si>
+  <si>
+    <t>2. Enter account email - Create account</t>
+  </si>
+  <si>
+    <t>3. Enter account email - Create account</t>
+  </si>
+  <si>
+    <t>4. Enter account email - Create account</t>
+  </si>
+  <si>
+    <t>Clone a recipe from recipe view and recipe shelf</t>
+  </si>
+  <si>
+    <t>Detailed - Essentially Boundary Tests</t>
   </si>
 </sst>
 </file>
@@ -524,11 +527,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,12 +856,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -875,12 +878,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -945,7 +948,7 @@
       <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1058,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>55</v>
@@ -1233,22 +1236,22 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>55</v>
@@ -1256,13 +1259,13 @@
     </row>
     <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
@@ -1270,13 +1273,13 @@
     </row>
     <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>55</v>
@@ -1284,13 +1287,13 @@
     </row>
     <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
         <v>55</v>
@@ -1298,13 +1301,13 @@
     </row>
     <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>55</v>
@@ -1312,13 +1315,13 @@
     </row>
     <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>55</v>
@@ -1326,27 +1329,27 @@
     </row>
     <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D38" t="s">
         <v>55</v>
@@ -1354,13 +1357,13 @@
     </row>
     <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -1368,13 +1371,13 @@
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
@@ -1382,13 +1385,13 @@
     </row>
     <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>55</v>
@@ -1396,27 +1399,27 @@
     </row>
     <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
@@ -1424,13 +1427,13 @@
     </row>
     <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
@@ -1438,13 +1441,13 @@
     </row>
     <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>55</v>
@@ -1452,13 +1455,13 @@
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
         <v>55</v>
@@ -1466,13 +1469,13 @@
     </row>
     <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
         <v>55</v>
@@ -1480,13 +1483,13 @@
     </row>
     <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
         <v>55</v>
@@ -1494,13 +1497,13 @@
     </row>
     <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
         <v>55</v>
@@ -1508,13 +1511,13 @@
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
@@ -1522,13 +1525,13 @@
     </row>
     <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
@@ -1536,13 +1539,13 @@
     </row>
     <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -1550,13 +1553,13 @@
     </row>
     <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>

--- a/Appendix/6. Testing & Refactoring/6.1 Blackbox Testing.xlsx
+++ b/Appendix/6. Testing & Refactoring/6.1 Blackbox Testing.xlsx
@@ -83,9 +83,6 @@
     <t>Log off</t>
   </si>
   <si>
-    <t>Black Box Testing</t>
-  </si>
-  <si>
     <t>Test Details / Input</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t>Detailed - Essentially Boundary Tests</t>
+  </si>
+  <si>
+    <t>Black Box Testing  - Honours Project - Recipes For Life</t>
   </si>
 </sst>
 </file>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -887,16 +887,16 @@
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -904,13 +904,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -918,13 +918,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -932,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
@@ -946,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -960,41 +960,41 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1002,13 +1002,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1016,13 +1016,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1030,13 +1030,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1044,13 +1044,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1058,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1072,13 +1072,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1086,13 +1086,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1100,27 +1100,27 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -1128,83 +1128,83 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1212,13 +1212,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1226,18 +1226,18 @@
         <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1245,324 +1245,324 @@
     </row>
     <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="D31" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
